--- a/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_XGradCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/SwinSmall/wronglyClassifications/Data_Full_XGradCAM_SwinSmall_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.2330681529930078</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2321417751279343</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.2921000085018289</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.2907415926500954</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.2330471649433972</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006685612217243287</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006682965776200651</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.006854252176305055</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.006741092252006086</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.006683863852703757</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.01592151339496946</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.0158465807959675</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>0.02069646595370081</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02221117967988422</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.01594491630711178</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.004634498818984239</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004637267116958735</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>0.004458093733978226</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.004377550380948837</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.004633254393069286</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005005255738004033</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.00501076158776046</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.004654404816875186</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.004535622382087073</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.005003420503505694</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006307388806738891</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006299148577861996</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.006832483391530427</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.006710288269682825</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.006305500844907311</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.006517349039622347</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.006525812372083114</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.005978037558008649</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.00586853311206559</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.006515657153635385</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.2858868752087873</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2862533566130286</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>0.2625334703860958</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.26065525681006</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.2858578560835593</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.1610416570492828</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1613876656995429</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>0.1389928436902403</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.1423497209739455</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.1610935220999422</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.002427708912343596</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.002422096328869093</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>0.00278536125831366</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.002907838006594164</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.002429601225412359</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.01987571552418598</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.01989198215281741</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.01883915225212318</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.01838793763934634</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.01986874408413257</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002436711236259675</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002437251791332873</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.002402265282639027</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.002317476492417892</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.002435401216700271</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.01889033711725447</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01891483352876992</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.01732934491354866</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.01651035138409724</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.0188776833508803</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2202734296185008</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2205980820043768</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0.1995855079224052</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.190825749137893</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.2201380879617388</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.003028319188989212</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003031149865400561</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.002847939144077576</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.002760888238246003</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.003026974218869859</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.002561023432860389</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.002566170767946891</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.002233018249945277</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.002187229127725458</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.002560315973235601</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0002467251136929122</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0002487524805176124</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>0.0001175346073441735</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.0001016935010214013</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.0002464803624814451</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.005183101819102942</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.005095614017040411</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.01075811336121383</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01009994437078395</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.005172932853976671</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>8.624688928689691e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>8.733301963742093e-06</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>1.703507806685463e-06</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1.315737539864124e-06</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>8.618697728287291e-06</v>
       </c>
     </row>
